--- a/datafiles/4BeatsQ1.xlsx
+++ b/datafiles/4BeatsQ1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="48">
   <si>
     <t>Longest Option</t>
   </si>
@@ -111,11 +111,81 @@
   <si>
     <t>Geography</t>
   </si>
+  <si>
+    <t>Dhaka University
+Public university in Dhaka, Bangladesh</t>
+  </si>
+  <si>
+    <t>dhaka post</t>
+  </si>
+  <si>
+    <t>saturday sunday monday
+7 Days of the Week — Song by The Learning Station</t>
+  </si>
+  <si>
+    <t>saturday</t>
+  </si>
+  <si>
+    <t>Baby
+Song by Justin Bieber and Ludacris</t>
+  </si>
+  <si>
+    <t>baby tower</t>
+  </si>
+  <si>
+    <t>School 2017
+Television series</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>cricket icc
+International Cricket Council — Cricket administrative body</t>
+  </si>
+  <si>
+    <t>cricket</t>
+  </si>
+  <si>
+    <t>money plant
+Golden Pothos</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>Inter Miami CF
+Soccer club</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>look meaning in bengali</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>Hello Hello! (Noodle &amp; Pals) [Sing-Along]
+Song by Noodle &amp; Pals and Super Simple Songs</t>
+  </si>
+  <si>
+    <t>hello world</t>
+  </si>
+  <si>
+    <t>Byeon Woo-seok
+South Korean actor and model</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -469,12 +539,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="76.90625" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" customWidth="1"/>
-    <col min="6" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.7265625"/>
+    <col min="2" max="2" customWidth="true" width="13.54296875"/>
+    <col min="3" max="3" customWidth="true" width="17.81640625"/>
+    <col min="4" max="4" customWidth="true" width="76.90625"/>
+    <col min="5" max="5" customWidth="true" width="41.453125"/>
+    <col min="6" max="26" customWidth="true" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5">
@@ -505,6 +575,12 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:6" thickBot="1">
       <c r="A4" s="1"/>
@@ -514,6 +590,12 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:6" thickBot="1">
       <c r="A5" s="1"/>
@@ -523,6 +605,12 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:6" thickBot="1">
       <c r="A6" s="1"/>
@@ -532,6 +620,12 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:6" thickBot="1">
       <c r="A7" s="1"/>
@@ -541,6 +635,12 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:6" thickBot="1">
       <c r="A8" s="1"/>
@@ -550,6 +650,12 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:6" thickBot="1">
       <c r="A9" s="1"/>
@@ -559,6 +665,12 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:6" thickBot="1">
       <c r="A10" s="1"/>
@@ -568,6 +680,12 @@
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D10" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:6" thickBot="1">
       <c r="A11" s="1"/>
@@ -577,6 +695,12 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:6" thickBot="1">
       <c r="A12" s="1"/>
@@ -585,6 +709,12 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" thickBot="1">
@@ -1595,12 +1725,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" customWidth="1"/>
-    <col min="5" max="5" width="33.26953125" customWidth="1"/>
-    <col min="6" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.7265625"/>
+    <col min="2" max="2" customWidth="true" width="14.1796875"/>
+    <col min="3" max="3" customWidth="true" width="17.54296875"/>
+    <col min="4" max="4" customWidth="true" width="29.453125"/>
+    <col min="5" max="5" customWidth="true" width="33.26953125"/>
+    <col min="6" max="26" customWidth="true" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5">
@@ -2745,12 +2875,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.81640625" customWidth="1"/>
-    <col min="6" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.7265625"/>
+    <col min="2" max="2" customWidth="true" width="13.453125"/>
+    <col min="3" max="3" customWidth="true" width="8.7265625"/>
+    <col min="4" max="4" customWidth="true" width="28.54296875"/>
+    <col min="5" max="5" customWidth="true" width="31.81640625"/>
+    <col min="6" max="26" customWidth="true" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5">
@@ -3895,12 +4025,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" customWidth="1"/>
-    <col min="5" max="5" width="39.54296875" customWidth="1"/>
-    <col min="6" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.7265625"/>
+    <col min="2" max="2" customWidth="true" width="16.1796875"/>
+    <col min="3" max="3" customWidth="true" width="16.453125"/>
+    <col min="4" max="4" customWidth="true" width="30.81640625"/>
+    <col min="5" max="5" customWidth="true" width="39.54296875"/>
+    <col min="6" max="26" customWidth="true" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="28.5">
@@ -5037,12 +5167,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" customWidth="1"/>
-    <col min="5" max="5" width="29.54296875" customWidth="1"/>
-    <col min="6" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.7265625"/>
+    <col min="2" max="2" customWidth="true" width="13.26953125"/>
+    <col min="3" max="3" customWidth="true" width="20.81640625"/>
+    <col min="4" max="4" customWidth="true" width="24.1796875"/>
+    <col min="5" max="5" customWidth="true" width="29.54296875"/>
+    <col min="6" max="26" customWidth="true" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5">
@@ -6187,12 +6317,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="28.81640625" customWidth="1"/>
-    <col min="6" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.7265625"/>
+    <col min="2" max="2" customWidth="true" width="19.1796875"/>
+    <col min="3" max="3" customWidth="true" width="17.0"/>
+    <col min="4" max="4" customWidth="true" width="33.0"/>
+    <col min="5" max="5" customWidth="true" width="28.81640625"/>
+    <col min="6" max="26" customWidth="true" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5">
@@ -7337,12 +7467,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="9.26953125"/>
+    <col min="2" max="2" customWidth="true" width="15.0"/>
+    <col min="3" max="3" customWidth="true" width="16.7265625"/>
+    <col min="4" max="4" customWidth="true" width="15.1796875"/>
+    <col min="5" max="5" customWidth="true" width="23.0"/>
+    <col min="6" max="26" customWidth="true" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5">
